--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-27.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-27.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,13 +428,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -442,7 +442,7 @@
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="4" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -520,6 +520,1958 @@
         <is>
           <t>min</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Booz</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Labaron Philon Jr.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12:51 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Booz</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Derrion Reid</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>OU</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ARK@OU</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15:48 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Booz</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Billy Richmond III</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ARK@OU</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15:48 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Booz</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Jacob Crews</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12:51 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CDL</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Trevon Brazile</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ARK@OU</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15:48 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CDL</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Nijel Pack</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>OU</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ARK@OU</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15:48 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I7" t="n">
+        <v>16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CDL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Meleek Thomas</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ARK@OU</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15:48 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Clay</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Aden Holloway</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>12:51 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Clay</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Mark Mitchell</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>12:51 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Clay</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Kirill Elatontsev</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>OU</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ARK@OU</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>15:48 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Clay</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Taylor Bol Bowen</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>12:51 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hal</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Jayden Stone</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>12:51 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Hal</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Nick Pringle</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ARK@OU</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>15:48 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hal</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Anthony Robinson II</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>12:51 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Hal</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Jadon Jones</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>OU</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ARK@OU</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>15:48 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Hal</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Houston Mallette</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>12:51 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Darius Acuff Jr.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>ARK@OU</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>15:48 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>17</v>
+      </c>
+      <c r="I18" t="n">
+        <v>13</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>7</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Xzayvier Brown</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>OU</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>ARK@OU</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>15:48 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>13</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9</v>
+      </c>
+      <c r="J19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Jeff Nwankwo</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>OU</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ARK@OU</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>15:48 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ron</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Mohamed Wague</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>OU</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ARK@OU</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>15:48 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Ron</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Latrell Wrightsell</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>12:51 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Tar</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Tae Davis</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>OU</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ARK@OU</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>15:48 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Tar</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Aiden Sherrell</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>12:51 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Tar</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Karter Knox</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>ARK@OU</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>15:48 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>13</v>
+      </c>
+      <c r="I25" t="n">
+        <v>11</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Malique Ewin</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ARK@OU</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>15:48 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+      <c r="I26" t="n">
+        <v>8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Shawn Phillips Jr.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>12:51 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>T.O. Barrett</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>12:51 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Charles Bediako</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>12:51 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>D.J. Wagner</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>ARK@OU</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>15:48 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>London Jemison</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>12:51 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Trent Pierce</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>12:51 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Nicholas Randall</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>12:51 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +2485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +2515,97 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Mark</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CDL</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tar</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Hal</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Booz</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Clay</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ron</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-27.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-27.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,21 +555,21 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11:35 - 1st Half</t>
+          <t>9:52 - 1st Half</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I2" t="n">
+        <v>11</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
         <v>5</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
       <c r="L2" t="n">
         <v>1</v>
       </c>
@@ -577,10 +577,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -616,32 +616,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15:26 - 2nd Half</t>
+          <t>11:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
       <c r="O3" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -677,23 +677,23 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15:26 - 2nd Half</t>
+          <t>11:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -738,17 +738,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11:35 - 1st Half</t>
+          <t>9:52 - 1st Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -799,7 +799,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15:26 - 2nd Half</t>
+          <t>11:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -809,10 +809,10 @@
         <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -860,14 +860,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15:26 - 2nd Half</t>
+          <t>11:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I7" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -921,14 +921,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15:26 - 2nd Half</t>
+          <t>11:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -967,12 +967,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Aden Holloway</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -982,32 +982,32 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>11:35 - 1st Half</t>
+          <t>9:52 - 1st Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1028,12 +1028,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Aden Holloway</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1043,20 +1043,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>11:35 - 1st Half</t>
+          <t>9:52 - 1st Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15:26 - 2nd Half</t>
+          <t>11:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -1165,17 +1165,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11:35 - 1st Half</t>
+          <t>9:52 - 1st Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -1226,20 +1226,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11:35 - 1st Half</t>
+          <t>9:52 - 1st Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" t="n">
         <v>3</v>
       </c>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
@@ -1248,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -1287,11 +1287,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15:26 - 2nd Half</t>
+          <t>11:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I14" t="n">
         <v>8</v>
@@ -1300,10 +1300,10 @@
         <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>15:26 - 2nd Half</t>
+          <t>11:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1394,12 +1394,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1409,17 +1409,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11:35 - 1st Half</t>
+          <t>9:52 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Houston Mallette</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1470,17 +1470,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>11:35 - 1st Half</t>
+          <t>9:52 - 1st Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1492,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>15:26 - 2nd Half</t>
+          <t>11:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1544,7 +1544,7 @@
         <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -1592,11 +1592,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15:26 - 2nd Half</t>
+          <t>11:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I19" t="n">
         <v>11</v>
@@ -1614,10 +1614,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15:26 - 2nd Half</t>
+          <t>11:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -1714,32 +1714,32 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>15:26 - 2nd Half</t>
+          <t>11:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I21" t="n">
         <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
         <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -1775,23 +1775,23 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>11:35 - 1st Half</t>
+          <t>9:52 - 1st Half</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
         <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -1836,17 +1836,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>15:26 - 2nd Half</t>
+          <t>11:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I23" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
         <v>2</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
@@ -1897,17 +1897,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>11:35 - 1st Half</t>
+          <t>9:52 - 1st Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15:26 - 2nd Half</t>
+          <t>11:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -2019,32 +2019,32 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15:26 - 2nd Half</t>
+          <t>11:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H26" t="n">
+        <v>12</v>
+      </c>
+      <c r="I26" t="n">
         <v>10</v>
       </c>
-      <c r="I26" t="n">
-        <v>8</v>
-      </c>
       <c r="J26" t="n">
+        <v>3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>2</v>
       </c>
-      <c r="K26" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1</v>
-      </c>
       <c r="O26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -2065,12 +2065,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Charles Bediako</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2080,23 +2080,23 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>11:35 - 1st Half</t>
+          <t>9:52 - 1st Half</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I27" t="n">
+        <v>6</v>
+      </c>
+      <c r="J27" t="n">
         <v>4</v>
       </c>
-      <c r="J27" t="n">
-        <v>3</v>
-      </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2126,12 +2126,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Charles Bediako</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2141,17 +2141,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>11:35 - 1st Half</t>
+          <t>9:52 - 1st Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
@@ -2202,17 +2202,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>11:35 - 1st Half</t>
+          <t>9:52 - 1st Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -2263,20 +2263,20 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>11:35 - 1st Half</t>
+          <t>9:52 - 1st Half</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
         <v>6</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -2285,10 +2285,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O30" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -2309,32 +2309,32 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>15:26 - 2nd Half</t>
+          <t>9:52 - 1st Half</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2346,10 +2346,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -2370,33 +2370,33 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>11:35 - 1st Half</t>
+          <t>11:16 - 2nd Half</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>2</v>
       </c>
-      <c r="J32" t="n">
-        <v>1</v>
-      </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
@@ -2407,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>11:35 - 1st Half</t>
+          <t>9:52 - 1st Half</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -2472,6 +2472,67 @@
       </c>
       <c r="O33" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Sebastian Mack</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>9:52 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2531,37 +2592,37 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2570,27 +2631,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-27.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-27.xlsx
@@ -434,7 +434,7 @@
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -555,7 +555,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9:52 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -616,17 +616,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11:16 - 2nd Half</t>
+          <t>3:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" t="n">
         <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -677,17 +677,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>11:16 - 2nd Half</t>
+          <t>3:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
         <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -738,7 +738,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>9:52 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>11:16 - 2nd Half</t>
+          <t>3:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -860,17 +860,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>11:16 - 2nd Half</t>
+          <t>3:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I7" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -921,7 +921,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11:16 - 2nd Half</t>
+          <t>3:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -982,7 +982,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>9:52 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>9:52 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>11:16 - 2nd Half</t>
+          <t>3:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>9:52 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>9:52 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11:16 - 2nd Half</t>
+          <t>3:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>11:16 - 2nd Half</t>
+          <t>3:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>9:52 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>9:52 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1531,11 +1531,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>11:16 - 2nd Half</t>
+          <t>3:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I18" t="n">
         <v>17</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -1592,20 +1592,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>11:16 - 2nd Half</t>
+          <t>3:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J19" t="n">
         <v>6</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11:16 - 2nd Half</t>
+          <t>3:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1714,17 +1714,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>11:16 - 2nd Half</t>
+          <t>3:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K21" t="n">
         <v>4</v>
@@ -1739,7 +1739,7 @@
         <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>9:52 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1836,11 +1836,11 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>11:16 - 2nd Half</t>
+          <t>3:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I23" t="n">
         <v>14</v>
@@ -1861,7 +1861,7 @@
         <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>9:52 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11:16 - 2nd Half</t>
+          <t>3:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -2019,17 +2019,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>11:16 - 2nd Half</t>
+          <t>3:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H26" t="n">
+        <v>15</v>
+      </c>
+      <c r="I26" t="n">
         <v>12</v>
       </c>
-      <c r="I26" t="n">
-        <v>10</v>
-      </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
@@ -2044,7 +2044,7 @@
         <v>2</v>
       </c>
       <c r="O26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>9:52 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>9:52 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>9:52 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>9:52 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>9:52 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -2370,22 +2370,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>Nicholas Randall</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>11:16 - 2nd Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -2407,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2431,32 +2431,32 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>9:52 - 1st Half</t>
+          <t>3:47 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -2468,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>9:52 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-27.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-27.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="34" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -555,23 +555,23 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19:41 - 2nd Half</t>
+          <t>15:18 - 2nd Half</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -601,35 +601,35 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Derrion Reid</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0:11 - 2nd Half</t>
+          <t>15:07 - 1st Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -662,12 +662,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Billy Richmond III</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -677,32 +677,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -723,47 +723,47 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Devin McGlockton</t>
+          <t>Billy Richmond III</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tue, January 27th at 9:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J5" t="n">
         <v>3</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -799,17 +799,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19:41 - 2nd Half</t>
+          <t>15:18 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -860,7 +860,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -921,7 +921,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -982,7 +982,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -1043,14 +1043,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tue, January 27th at 9:00 PM EST</t>
+          <t>15:07 - 1st Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -1089,22 +1089,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>19:41 - 2nd Half</t>
+          <t>15:07 - 1st Half</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1114,10 +1114,10 @@
         <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -1165,20 +1165,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19:41 - 2nd Half</t>
+          <t>15:18 - 2nd Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -1211,47 +1211,47 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tue, January 27th at 9:00 PM EST</t>
+          <t>15:18 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -1287,17 +1287,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>19:41 - 2nd Half</t>
+          <t>15:18 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tue, January 27th at 9:00 PM EST</t>
+          <t>15:07 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1419,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1428,13 +1428,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -1470,17 +1470,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>19:41 - 2nd Half</t>
+          <t>15:18 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
@@ -1495,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
@@ -1531,32 +1531,32 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Tue, January 27th at 9:00 PM EST</t>
+          <t>15:07 - 1st Half</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1638,47 +1638,47 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0:11 - 2nd Half</t>
+          <t>15:18 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -1699,47 +1699,47 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Houston Mallette</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19:41 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1775,17 +1775,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>19:41 - 2nd Half</t>
+          <t>15:18 - 2nd Half</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1897,14 +1897,14 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Tue, January 27th at 9:00 PM EST</t>
+          <t>15:07 - 1st Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
         <v>3</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -2080,32 +2080,32 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Tue, January 27th at 9:00 PM EST</t>
+          <t>15:07 - 1st Half</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -2126,47 +2126,47 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Latrell Wrightsell</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0:11 - 2nd Half</t>
+          <t>15:18 - 2nd Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I28" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="J28" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
@@ -2187,47 +2187,47 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Latrell Wrightsell</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>19:41 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I29" t="n">
         <v>9</v>
       </c>
       <c r="J29" t="n">
+        <v>12</v>
+      </c>
+      <c r="K29" t="n">
         <v>4</v>
       </c>
-      <c r="K29" t="n">
-        <v>2</v>
-      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O29" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
@@ -2248,47 +2248,47 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0:11 - 2nd Half</t>
+          <t>15:07 - 1st Half</t>
         </is>
       </c>
       <c r="H30" t="n">
+        <v>15</v>
+      </c>
+      <c r="I30" t="n">
         <v>10</v>
       </c>
-      <c r="I30" t="n">
-        <v>14</v>
-      </c>
       <c r="J30" t="n">
+        <v>4</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4</v>
+      </c>
+      <c r="L30" t="n">
         <v>3</v>
       </c>
-      <c r="K30" t="n">
-        <v>2</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -2324,14 +2324,14 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>19:41 - 2nd Half</t>
+          <t>15:18 - 2nd Half</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I31" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2343,13 +2343,13 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
@@ -2370,35 +2370,35 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tue, January 27th at 9:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H32" t="n">
+        <v>10</v>
+      </c>
+      <c r="I32" t="n">
+        <v>14</v>
+      </c>
+      <c r="J32" t="n">
         <v>3</v>
       </c>
-      <c r="I32" t="n">
-        <v>2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1</v>
-      </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -2407,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O32" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
@@ -2446,17 +2446,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tue, January 27th at 9:00 PM EST</t>
+          <t>15:07 - 1st Half</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -2468,10 +2468,10 @@
         <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -2568,17 +2568,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>19:41 - 2nd Half</t>
+          <t>15:18 - 2nd Half</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I35" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -2593,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0:11 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -2690,18 +2690,18 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>19:41 - 2nd Half</t>
+          <t>15:18 - 2nd Half</t>
         </is>
       </c>
       <c r="H37" t="n">
+        <v>13</v>
+      </c>
+      <c r="I37" t="n">
         <v>10</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>8</v>
       </c>
-      <c r="J37" t="n">
-        <v>6</v>
-      </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
@@ -2712,10 +2712,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O37" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
@@ -2751,32 +2751,32 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>19:41 - 2nd Half</t>
+          <t>15:18 - 2nd Half</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O38" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
@@ -2797,32 +2797,32 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>19:41 - 2nd Half</t>
+          <t>15:07 - 1st Half</t>
         </is>
       </c>
       <c r="H39" t="n">
         <v>7</v>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -2831,13 +2831,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -2858,47 +2858,47 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>London Jemison</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Tue, January 27th at 9:00 PM EST</t>
+          <t>15:18 - 2nd Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
@@ -2934,17 +2934,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>19:41 - 2nd Half</t>
+          <t>15:18 - 2nd Half</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -2956,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
@@ -2980,47 +2980,47 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>19:41 - 2nd Half</t>
+          <t>15:07 - 1st Half</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -3041,35 +3041,35 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0:11 - 2nd Half</t>
+          <t>15:07 - 1st Half</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3117,17 +3117,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Tue, January 27th at 9:00 PM EST</t>
+          <t>15:07 - 1st Half</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -3163,29 +3163,29 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>19:41 - 2nd Half</t>
+          <t>15:07 - 1st Half</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -3224,47 +3224,47 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>19:41 - 2nd Half</t>
+          <t>15:07 - 1st Half</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -3285,32 +3285,32 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Sebastian Mack</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Tue, January 27th at 9:00 PM EST</t>
+          <t>15:18 - 2nd Half</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -3346,32 +3346,32 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Tue, January 27th at 9:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -3407,47 +3407,413 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sebastian Mack</t>
+          <t>Noah Williamson</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>15:18 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Annor Boateng</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>MIZ</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>MIZ@ALA</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>19:41 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>15:18 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
         <v>-1</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
-        <v>2</v>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Brandon Garrison</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>15:07 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Trent Burns</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>15:18 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Andrija Jelavic</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>15:07 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Nicholas Randall</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>15:18 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Jasper Johnson</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>15:07 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3494,27 +3860,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Tar</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tar</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3524,7 +3890,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -3533,11 +3899,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CDL</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -3546,11 +3912,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>CDL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -3563,7 +3929,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -3576,7 +3942,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-27.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-27.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18:54 - 2nd Half</t>
+          <t>14:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1043,14 +1043,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18:54 - 2nd Half</t>
+          <t>14:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18:54 - 2nd Half</t>
+          <t>14:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18:54 - 2nd Half</t>
+          <t>14:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>18:54 - 2nd Half</t>
+          <t>14:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1617,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>18:54 - 2nd Half</t>
+          <t>14:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>18:54 - 2nd Half</t>
+          <t>14:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -2166,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>18:54 - 2nd Half</t>
+          <t>14:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -2349,7 +2349,7 @@
         <v>2</v>
       </c>
       <c r="O31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18:54 - 2nd Half</t>
+          <t>14:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -2797,47 +2797,47 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I39" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -2858,47 +2858,47 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>18:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J40" t="n">
+        <v>2</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
         <v>3</v>
       </c>
-      <c r="K40" t="n">
-        <v>1</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>2</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
       <c r="O40" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
@@ -2934,7 +2934,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>18:54 - 2nd Half</t>
+          <t>14:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -3056,14 +3056,14 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>18:54 - 2nd Half</t>
+          <t>14:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H43" t="n">
         <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -3239,7 +3239,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>18:54 - 2nd Half</t>
+          <t>14:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>18:54 - 2nd Half</t>
+          <t>14:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -3483,7 +3483,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>18:54 - 2nd Half</t>
+          <t>14:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>18:54 - 2nd Half</t>
+          <t>14:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -3712,22 +3712,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -3773,17 +3773,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3795,10 +3795,10 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -3807,13 +3807,13 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
@@ -3834,12 +3834,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Nicholas Randall</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3856,25 +3856,25 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -3895,26 +3895,26 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Noah Williamson</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>18:54 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -3926,16 +3926,16 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>18:54 - 2nd Half</t>
+          <t>14:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H58" t="n">

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-27.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-27.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,17 +616,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14:35 - 2nd Half</t>
+          <t>13:48 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -641,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -1043,20 +1043,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>14:35 - 2nd Half</t>
+          <t>13:48 - 2nd Half</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -1104,32 +1104,32 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>14:35 - 2nd Half</t>
+          <t>13:48 - 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -1409,14 +1409,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>14:35 - 2nd Half</t>
+          <t>13:48 - 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
@@ -1434,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -1516,47 +1516,47 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>13:48 - 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J18" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -1577,38 +1577,38 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>14:35 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H19" t="n">
+        <v>10</v>
+      </c>
+      <c r="I19" t="n">
         <v>8</v>
       </c>
-      <c r="I19" t="n">
-        <v>12</v>
-      </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
@@ -1958,17 +1958,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>14:35 - 2nd Half</t>
+          <t>13:48 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1983,7 +1983,7 @@
         <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
@@ -2141,14 +2141,14 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>14:35 - 2nd Half</t>
+          <t>13:48 - 2nd Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>7</v>
@@ -2160,13 +2160,13 @@
         <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O28" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
@@ -2324,20 +2324,20 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>14:35 - 2nd Half</t>
+          <t>13:48 - 2nd Half</t>
         </is>
       </c>
       <c r="H31" t="n">
+        <v>18</v>
+      </c>
+      <c r="I31" t="n">
         <v>19</v>
-      </c>
-      <c r="I31" t="n">
-        <v>18</v>
       </c>
       <c r="J31" t="n">
         <v>4</v>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L31" t="n">
         <v>4</v>
@@ -2349,7 +2349,7 @@
         <v>2</v>
       </c>
       <c r="O31" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
@@ -2507,17 +2507,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>14:35 - 2nd Half</t>
+          <t>13:48 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
@@ -2736,47 +2736,47 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>13:48 - 2nd Half</t>
         </is>
       </c>
       <c r="H38" t="n">
         <v>13</v>
       </c>
       <c r="I38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J38" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
@@ -2797,47 +2797,47 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>14:35 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O39" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2934,32 +2934,32 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>14:35 - 2nd Half</t>
+          <t>13:48 - 2nd Half</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
@@ -2980,26 +2980,26 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>13:48 - 2nd Half</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I42" t="n">
         <v>6</v>
@@ -3011,16 +3011,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3056,32 +3056,32 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>14:35 - 2nd Half</t>
+          <t>13:48 - 2nd Half</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -3102,12 +3102,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>London Jemison</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3121,10 +3121,10 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J44" t="n">
         <v>3</v>
@@ -3133,16 +3133,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3188,7 +3188,7 @@
         <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -3200,10 +3200,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -3224,35 +3224,35 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>14:35 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -3261,10 +3261,10 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
@@ -3346,35 +3346,35 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Sebastian Mack</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>13:48 - 2nd Half</t>
         </is>
       </c>
       <c r="H48" t="n">
         <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -3383,10 +3383,10 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -3407,35 +3407,35 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Sebastian Mack</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>14:35 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H49" t="n">
         <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50">
@@ -3468,35 +3468,35 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Jacob Martin</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>UK@VAN</t>
+          <t>MIZ@ALA</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>14:35 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Jacob Martin</t>
+          <t>Luke Northweather</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -3590,32 +3590,32 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Luke Northweather</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>13:48 - 2nd Half</t>
         </is>
       </c>
       <c r="H52" t="n">
         <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
@@ -3651,12 +3651,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3666,20 +3666,20 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>14:35 - 2nd Half</t>
+          <t>13:48 - 2nd Half</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3727,14 +3727,14 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>14:35 - 2nd Half</t>
+          <t>13:48 - 2nd Half</t>
         </is>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3746,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
@@ -3773,22 +3773,22 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>Coleson Messer</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ARK@OU</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>13:48 - 2nd Half</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -3810,10 +3810,10 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -3834,17 +3834,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>ARK@OU</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3856,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -3868,13 +3868,13 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
@@ -3895,22 +3895,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Jaylon Dean-Vines</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>MIZ@ALA</t>
+          <t>UK@VAN</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>13:48 - 2nd Half</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Miles Keeffe</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3971,11 +3971,11 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>14:35 - 2nd Half</t>
+          <t>13:48 - 2nd Half</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -3987,16 +3987,16 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -4017,46 +4017,229 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>Nicholas Randall</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Noah Williamson</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>MIZ@ALA</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Jasper Johnson</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>UK@VAN</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>13:48 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>4</v>
+      </c>
+      <c r="O61" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>Annor Boateng</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>MIZ</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>MIZ@ALA</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>Final</t>
         </is>
       </c>
-      <c r="H59" t="n">
+      <c r="H62" t="n">
         <v>-4</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
-        <v>1</v>
-      </c>
-      <c r="O59" t="n">
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4108,7 +4291,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -4117,53 +4300,53 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mark</t>
+          <t>Clay</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Clay</t>
+          <t>Mark</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Booz</t>
+          <t>Hal</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hal</t>
+          <t>Booz</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -4186,7 +4369,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-27.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-27.xlsx
@@ -434,7 +434,7 @@
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -616,7 +616,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -2934,7 +2934,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -3605,7 +3605,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>End of 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H61" t="n">
